--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H2">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I2">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J2">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.97658944878695</v>
+        <v>3.316186</v>
       </c>
       <c r="N2">
-        <v>2.97658944878695</v>
+        <v>9.948558</v>
       </c>
       <c r="O2">
-        <v>0.7814195340135786</v>
+        <v>0.7638813129544791</v>
       </c>
       <c r="P2">
-        <v>0.7814195340135786</v>
+        <v>0.7638813129544793</v>
       </c>
       <c r="Q2">
-        <v>2.797131976386362</v>
+        <v>3.405631274187333</v>
       </c>
       <c r="R2">
-        <v>2.797131976386362</v>
+        <v>30.650681467686</v>
       </c>
       <c r="S2">
-        <v>0.1697995588570956</v>
+        <v>0.1552620748717142</v>
       </c>
       <c r="T2">
-        <v>0.1697995588570956</v>
+        <v>0.1552620748717142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H3">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I3">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J3">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.318130340233399</v>
+        <v>0.4282866666666667</v>
       </c>
       <c r="N3">
-        <v>0.318130340233399</v>
+        <v>1.28486</v>
       </c>
       <c r="O3">
-        <v>0.08351614036731639</v>
+        <v>0.09865555829927233</v>
       </c>
       <c r="P3">
-        <v>0.08351614036731639</v>
+        <v>0.09865555829927235</v>
       </c>
       <c r="Q3">
-        <v>0.2989503801702162</v>
+        <v>0.4398385574022223</v>
       </c>
       <c r="R3">
-        <v>0.2989503801702162</v>
+        <v>3.95854701662</v>
       </c>
       <c r="S3">
-        <v>0.018147746728291</v>
+        <v>0.02005215524899897</v>
       </c>
       <c r="T3">
-        <v>0.018147746728291</v>
+        <v>0.02005215524899898</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H4">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I4">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J4">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.364847821977872</v>
+        <v>0.417289</v>
       </c>
       <c r="N4">
-        <v>0.364847821977872</v>
+        <v>1.251867</v>
       </c>
       <c r="O4">
-        <v>0.09578049641747012</v>
+        <v>0.09612225285356782</v>
       </c>
       <c r="P4">
-        <v>0.09578049641747012</v>
+        <v>0.09612225285356783</v>
       </c>
       <c r="Q4">
-        <v>0.3428512822905828</v>
+        <v>0.4285442580043334</v>
       </c>
       <c r="R4">
-        <v>0.3428512822905828</v>
+        <v>3.856898322039</v>
       </c>
       <c r="S4">
-        <v>0.02081274569022669</v>
+        <v>0.0195372503113947</v>
       </c>
       <c r="T4">
-        <v>0.02081274569022669</v>
+        <v>0.0195372503113947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H5">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I5">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J5">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.149640271863876</v>
+        <v>0.1794703333333333</v>
       </c>
       <c r="N5">
-        <v>0.149640271863876</v>
+        <v>0.538411</v>
       </c>
       <c r="O5">
-        <v>0.03928382920163492</v>
+        <v>0.04134087589268053</v>
       </c>
       <c r="P5">
-        <v>0.03928382920163492</v>
+        <v>0.04134087589268053</v>
       </c>
       <c r="Q5">
-        <v>0.1406185154476622</v>
+        <v>0.1843110669874444</v>
       </c>
       <c r="R5">
-        <v>0.1406185154476622</v>
+        <v>1.658799602887</v>
       </c>
       <c r="S5">
-        <v>0.008536229999772686</v>
+        <v>0.008402706100095563</v>
       </c>
       <c r="T5">
-        <v>0.008536229999772686</v>
+        <v>0.008402706100095563</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H6">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I6">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J6">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.97658944878695</v>
+        <v>3.316186</v>
       </c>
       <c r="N6">
-        <v>2.97658944878695</v>
+        <v>9.948558</v>
       </c>
       <c r="O6">
-        <v>0.7814195340135786</v>
+        <v>0.7638813129544791</v>
       </c>
       <c r="P6">
-        <v>0.7814195340135786</v>
+        <v>0.7638813129544793</v>
       </c>
       <c r="Q6">
-        <v>4.027565114963441</v>
+        <v>4.503484495161334</v>
       </c>
       <c r="R6">
-        <v>4.027565114963441</v>
+        <v>40.53136045645201</v>
       </c>
       <c r="S6">
-        <v>0.2444928539526865</v>
+        <v>0.2053129920937181</v>
       </c>
       <c r="T6">
-        <v>0.2444928539526865</v>
+        <v>0.2053129920937181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H7">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I7">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J7">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.318130340233399</v>
+        <v>0.4282866666666667</v>
       </c>
       <c r="N7">
-        <v>0.318130340233399</v>
+        <v>1.28486</v>
       </c>
       <c r="O7">
-        <v>0.08351614036731639</v>
+        <v>0.09865555829927233</v>
       </c>
       <c r="P7">
-        <v>0.08351614036731639</v>
+        <v>0.09865555829927235</v>
       </c>
       <c r="Q7">
-        <v>0.4304559571887392</v>
+        <v>0.5816267129822223</v>
       </c>
       <c r="R7">
-        <v>0.4304559571887392</v>
+        <v>5.234640416840001</v>
       </c>
       <c r="S7">
-        <v>0.02613077690116143</v>
+        <v>0.0265162499953797</v>
       </c>
       <c r="T7">
-        <v>0.02613077690116143</v>
+        <v>0.0265162499953797</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H8">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I8">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J8">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.364847821977872</v>
+        <v>0.417289</v>
       </c>
       <c r="N8">
-        <v>0.364847821977872</v>
+        <v>1.251867</v>
       </c>
       <c r="O8">
-        <v>0.09578049641747012</v>
+        <v>0.09612225285356782</v>
       </c>
       <c r="P8">
-        <v>0.09578049641747012</v>
+        <v>0.09612225285356783</v>
       </c>
       <c r="Q8">
-        <v>0.4936684703586898</v>
+        <v>0.5666915370553335</v>
       </c>
       <c r="R8">
-        <v>0.4936684703586898</v>
+        <v>5.100223833498001</v>
       </c>
       <c r="S8">
-        <v>0.02996808487987633</v>
+        <v>0.02583535819697554</v>
       </c>
       <c r="T8">
-        <v>0.02996808487987633</v>
+        <v>0.02583535819697555</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H9">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I9">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J9">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.149640271863876</v>
+        <v>0.1794703333333333</v>
       </c>
       <c r="N9">
-        <v>0.149640271863876</v>
+        <v>0.538411</v>
       </c>
       <c r="O9">
-        <v>0.03928382920163492</v>
+        <v>0.04134087589268053</v>
       </c>
       <c r="P9">
-        <v>0.03928382920163492</v>
+        <v>0.04134087589268053</v>
       </c>
       <c r="Q9">
-        <v>0.2024753326321858</v>
+        <v>0.2437263360704445</v>
       </c>
       <c r="R9">
-        <v>0.2024753326321858</v>
+        <v>2.193537024634</v>
       </c>
       <c r="S9">
-        <v>0.01229124061740017</v>
+        <v>0.01111143679176126</v>
       </c>
       <c r="T9">
-        <v>0.01229124061740017</v>
+        <v>0.01111143679176126</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H10">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I10">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J10">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.97658944878695</v>
+        <v>3.316186</v>
       </c>
       <c r="N10">
-        <v>2.97658944878695</v>
+        <v>9.948558</v>
       </c>
       <c r="O10">
-        <v>0.7814195340135786</v>
+        <v>0.7638813129544791</v>
       </c>
       <c r="P10">
-        <v>0.7814195340135786</v>
+        <v>0.7638813129544793</v>
       </c>
       <c r="Q10">
-        <v>6.047736619752107</v>
+        <v>8.846412528946665</v>
       </c>
       <c r="R10">
-        <v>6.047736619752107</v>
+        <v>79.61771276051999</v>
       </c>
       <c r="S10">
-        <v>0.3671271212037964</v>
+        <v>0.4033062459890469</v>
       </c>
       <c r="T10">
-        <v>0.3671271212037964</v>
+        <v>0.4033062459890469</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H11">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I11">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J11">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.318130340233399</v>
+        <v>0.4282866666666667</v>
       </c>
       <c r="N11">
-        <v>0.318130340233399</v>
+        <v>1.28486</v>
       </c>
       <c r="O11">
-        <v>0.08351614036731639</v>
+        <v>0.09865555829927233</v>
       </c>
       <c r="P11">
-        <v>0.08351614036731639</v>
+        <v>0.09865555829927235</v>
       </c>
       <c r="Q11">
-        <v>0.6463667702873164</v>
+        <v>1.142517498711111</v>
       </c>
       <c r="R11">
-        <v>0.6463667702873164</v>
+        <v>10.2826574884</v>
       </c>
       <c r="S11">
-        <v>0.03923761673786395</v>
+        <v>0.05208715305489366</v>
       </c>
       <c r="T11">
-        <v>0.03923761673786395</v>
+        <v>0.05208715305489367</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H12">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I12">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J12">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.364847821977872</v>
+        <v>0.417289</v>
       </c>
       <c r="N12">
-        <v>0.364847821977872</v>
+        <v>1.251867</v>
       </c>
       <c r="O12">
-        <v>0.09578049641747012</v>
+        <v>0.09612225285356782</v>
       </c>
       <c r="P12">
-        <v>0.09578049641747012</v>
+        <v>0.09612225285356783</v>
       </c>
       <c r="Q12">
-        <v>0.741285814377791</v>
+        <v>1.113179609886667</v>
       </c>
       <c r="R12">
-        <v>0.741285814377791</v>
+        <v>10.01861648898</v>
       </c>
       <c r="S12">
-        <v>0.04499966584736709</v>
+        <v>0.05074964434519758</v>
       </c>
       <c r="T12">
-        <v>0.04499966584736709</v>
+        <v>0.05074964434519758</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H13">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I13">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J13">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.149640271863876</v>
+        <v>0.1794703333333333</v>
       </c>
       <c r="N13">
-        <v>0.149640271863876</v>
+        <v>0.538411</v>
       </c>
       <c r="O13">
-        <v>0.03928382920163492</v>
+        <v>0.04134087589268053</v>
       </c>
       <c r="P13">
-        <v>0.03928382920163492</v>
+        <v>0.04134087589268053</v>
       </c>
       <c r="Q13">
-        <v>0.3040341866123433</v>
+        <v>0.4787634364822221</v>
       </c>
       <c r="R13">
-        <v>0.3040341866123433</v>
+        <v>4.308870928339999</v>
       </c>
       <c r="S13">
-        <v>0.01845635858446207</v>
+        <v>0.02182673300082371</v>
       </c>
       <c r="T13">
-        <v>0.01845635858446207</v>
+        <v>0.02182673300082371</v>
       </c>
     </row>
   </sheetData>
